--- a/.test/工作簿22.xlsx
+++ b/.test/工作簿22.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\myworkspace\BasicLibrary.PY\.test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5CF9343-00E4-4D5B-910D-749291A4923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4DCB8510-CB7B-4F95-BFDF-45BB634EA3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{AF2B9F33-3226-445D-9273-A21F794CF96D}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="15375" windowHeight="7785" xr2:uid="{92D3183E-B09E-43CD-8D5B-F14EB8CDE3C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,7 +391,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2B13D-F880-4BA0-935B-55B0691D62E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{873A45DF-05D8-448F-90FE-E12D3A88C480}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
